--- a/frecuenciaDeTextos.xlsx
+++ b/frecuenciaDeTextos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drago\Documents\proyectoAlgoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B5EDD5-55EF-45E1-B956-0F8E56912510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB3C1BD-1B14-4D88-B3D9-1A7B19A9BD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-39780" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FrecuenciaTexto1" sheetId="1" r:id="rId1"/>
@@ -731,79 +731,79 @@
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>d</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>j</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>h</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>e</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>u</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>r</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>z</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>y</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>p</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>i</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>l</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>a</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>c</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>d</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>f</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>g</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>h</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>i</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>j</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
                   <c:v>k</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>l</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>m</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>n</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>o</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>p</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>r</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>s</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>t</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>u</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>v</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>w</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>x</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>y</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>z</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -815,64 +815,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -881,13 +881,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,79 +928,79 @@
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>d</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>j</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>h</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>e</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>u</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>t</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>r</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>z</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>y</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>p</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>i</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>l</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>a</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>c</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>d</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>f</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>g</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>h</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>i</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>j</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
                   <c:v>k</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>l</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>m</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>n</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>o</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>p</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>r</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>s</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>t</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>u</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>v</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>w</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>x</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>y</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>z</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1012,64 +1012,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12.182741116751268</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>11.167512690355331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8138747884940774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6446700507614214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5989847715736039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4297800338409479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0913705583756341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7529610829103213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2453468697123515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.230118443316413</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8917089678510997</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3.5532994923857868</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
+                  <c:v>3.2148900169204739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0456852791878171</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5380710659898478</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2.3688663282571913</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.182741116751268</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4297800338409479</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8917089678510997</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
                   <c:v>1.5228426395939085</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5989847715736039</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
+                  <c:v>1.5228426395939085</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.84602368866328259</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.6446700507614214</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>0.33840947546531303</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.167512690355331</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5228426395939085</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.8138747884940774</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5380710659898478</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.230118443316413</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.2453468697123515</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.7529610829103213</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1078,13 +1078,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0913705583756341</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0456852791878171</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2148900169204739</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,7 +1356,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]salidatexto2!$B$2</c:f>
+              <c:f>FrecuenciaTexto2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1377,174 +1377,174 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]salidatexto2!$A$3:$A$27</c:f>
+              <c:f>FrecuenciaTexto2!$A$2:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>z</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>w</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>j</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>l</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>e</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>i</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>a</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>c</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="14">
                   <c:v>d</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>f</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>g</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
+                  <c:v>u</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>r</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>y</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>h</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>i</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>j</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>o</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>p</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>k</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>l</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>m</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>n</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>o</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>p</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>r</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>s</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>t</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>u</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>v</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>w</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>x</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>y</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>z</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]salidatexto2!$B$3:$B$27</c:f>
+              <c:f>FrecuenciaTexto2!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="14">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5AF-47C6-A85E-F742E65876D4}"/>
+              <c16:uniqueId val="{00000000-D03A-43C9-B357-DE65530B2A62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1553,7 +1553,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]salidatexto2!$C$2</c:f>
+              <c:f>FrecuenciaTexto2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1574,174 +1574,174 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]salidatexto2!$A$3:$A$27</c:f>
+              <c:f>FrecuenciaTexto2!$A$2:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>z</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>w</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>j</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>l</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>e</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>t</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>i</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>a</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>c</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="14">
                   <c:v>d</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>e</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>f</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>g</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
+                  <c:v>u</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>r</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>y</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>h</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>i</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>j</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>o</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>p</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>k</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>l</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>m</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>n</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>o</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>p</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>r</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>s</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>t</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>u</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>v</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>w</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>x</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>y</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>z</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]salidatexto2!$C$3:$C$27</c:f>
+              <c:f>FrecuenciaTexto2!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>12.45136186770428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9221789883268485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7548638132295729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5603112840466924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.782101167315175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5875486381322954</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.809338521400778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2256809338521402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6692607003891053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2801556420233462</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0856031128404666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3073929961089492</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1128404669260701</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2.3346303501945527</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.5603112840466924</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1128404669260701</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="14">
                   <c:v>2.3346303501945527</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6692607003891053</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>2.1400778210116731</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.5875486381322954</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
+                  <c:v>1.556420233463035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1673151750972763</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97276264591439687</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.77821011673151752</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3073929961089492</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.809338521400778</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
+                  <c:v>0.58365758754863817</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38910505836575876</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19455252918287938</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.2256809338521402</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.7548638132295729</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.58365758754863817</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.38910505836575876</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.19455252918287938</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1673151750972763</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.45136186770428</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.0856031128404666</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.556420233463035</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.782101167315175</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.2801556420233462</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.97276264591439687</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.9221789883268485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A5AF-47C6-A85E-F742E65876D4}"/>
+              <c16:uniqueId val="{00000001-D03A-43C9-B357-DE65530B2A62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1755,11 +1755,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1361053936"/>
-        <c:axId val="1361051856"/>
+        <c:axId val="1069765343"/>
+        <c:axId val="1069762015"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1361053936"/>
+        <c:axId val="1069765343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,7 +1802,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1361051856"/>
+        <c:crossAx val="1069762015"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1810,7 +1810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1361051856"/>
+        <c:axId val="1069762015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1861,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1361053936"/>
+        <c:crossAx val="1069765343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3111,29 +3111,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FC0DEE-6FBD-4582-B368-D3BDE37C514A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87663EC-EEB7-46A6-8F80-1F142457153B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3746,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3768,14 +3766,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C26" si="0">((B2*100)/591)</f>
-        <v>0</v>
+        <f>((B2*100)/591)</f>
+        <v>12.182741116751268</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -3783,14 +3781,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>3.5532994923857868</v>
+        <f>((B3*100)/591)</f>
+        <v>11.167512690355331</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -3798,14 +3796,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2.3688663282571913</v>
+        <f>((B4*100)/591)</f>
+        <v>9.8138747884940774</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -3813,14 +3811,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>12.182741116751268</v>
+        <f>((B5*100)/591)</f>
+        <v>9.6446700507614214</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -3828,14 +3826,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>6.4297800338409479</v>
+        <f>((B6*100)/591)</f>
+        <v>6.5989847715736039</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -3843,14 +3841,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>3.8917089678510997</v>
+        <f>((B7*100)/591)</f>
+        <v>6.4297800338409479</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -3858,14 +3856,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1.5228426395939085</v>
+        <f>((B8*100)/591)</f>
+        <v>6.0913705583756341</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -3873,14 +3871,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>6.5989847715736039</v>
+        <f>((B9*100)/591)</f>
+        <v>5.7529610829103213</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -3888,14 +3886,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.84602368866328259</v>
+        <f>((B10*100)/591)</f>
+        <v>5.2453468697123515</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -3903,14 +3901,14 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>9.6446700507614214</v>
+        <f>((B11*100)/591)</f>
+        <v>4.230118443316413</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -3918,14 +3916,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((B12*100)/591)</f>
+        <v>3.8917089678510997</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -3933,14 +3931,14 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.33840947546531303</v>
+        <f>((B13*100)/591)</f>
+        <v>3.5532994923857868</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -3948,14 +3946,14 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>11.167512690355331</v>
+        <f>((B14*100)/591)</f>
+        <v>3.2148900169204739</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -3963,14 +3961,14 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1.5228426395939085</v>
+        <f>((B15*100)/591)</f>
+        <v>3.0456852791878171</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
@@ -3978,14 +3976,14 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>9.8138747884940774</v>
+        <f>((B16*100)/591)</f>
+        <v>2.5380710659898478</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -3993,14 +3991,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>2.5380710659898478</v>
+        <f>((B17*100)/591)</f>
+        <v>2.3688663282571913</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -4008,14 +4006,14 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>4.230118443316413</v>
+        <f>((B18*100)/591)</f>
+        <v>1.5228426395939085</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -4023,14 +4021,14 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((B19*100)/591)</f>
+        <v>1.5228426395939085</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -4038,14 +4036,14 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>5.2453468697123515</v>
+        <f>((B20*100)/591)</f>
+        <v>0.84602368866328259</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -4053,14 +4051,14 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>5.7529610829103213</v>
+        <f>((B21*100)/591)</f>
+        <v>0.33840947546531303</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -4068,13 +4066,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f>((B22*100)/591)</f>
         <v>0</v>
       </c>
       <c r="D22" t="s">
@@ -4083,13 +4081,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f>((B23*100)/591)</f>
         <v>0</v>
       </c>
       <c r="D23" t="s">
@@ -4098,14 +4096,14 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>6.0913705583756341</v>
+        <f>((B24*100)/591)</f>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -4113,14 +4111,14 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>3.0456852791878171</v>
+        <f>((B25*100)/591)</f>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -4128,14 +4126,14 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>3.2148900169204739</v>
+        <f>((B26*100)/591)</f>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -4151,6 +4149,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+    <sortCondition descending="1" ref="B2:B26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4161,8 +4162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF0819E-1967-4430-9174-B1DC404ADE9C}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4180,14 +4181,14 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <f>((B2*100)/514)</f>
-        <v>2.3346303501945527</v>
+        <v>12.45136186770428</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -4195,14 +4196,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <f>((B3*100)/514)</f>
-        <v>8.5603112840466924</v>
+        <v>9.9221789883268485</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -4210,14 +4211,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C26" si="0">((B4*100)/514)</f>
-        <v>3.1128404669260701</v>
+        <f>((B4*100)/514)</f>
+        <v>8.7548638132295729</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -4225,14 +4226,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2.3346303501945527</v>
+        <f>((B5*100)/514)</f>
+        <v>8.5603112840466924</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -4240,14 +4241,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>4.6692607003891053</v>
+        <f>((B6*100)/514)</f>
+        <v>7.782101167315175</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -4255,14 +4256,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2.1400778210116731</v>
+        <f>((B7*100)/514)</f>
+        <v>7.5875486381322954</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -4271,14 +4272,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>7.5875486381322954</v>
+        <f>((B8*100)/514)</f>
+        <v>6.809338521400778</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -4286,14 +4287,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.77821011673151752</v>
+        <f>((B9*100)/514)</f>
+        <v>6.2256809338521402</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -4301,14 +4302,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>3.3073929961089492</v>
+        <f>((B10*100)/514)</f>
+        <v>4.6692607003891053</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -4316,14 +4317,14 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>6.809338521400778</v>
+        <f>((B11*100)/514)</f>
+        <v>4.2801556420233462</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -4331,14 +4332,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((B12*100)/514)</f>
+        <v>4.0856031128404666</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -4346,14 +4347,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>6.2256809338521402</v>
+        <f>((B13*100)/514)</f>
+        <v>3.3073929961089492</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -4361,14 +4362,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>8.7548638132295729</v>
+        <f>((B14*100)/514)</f>
+        <v>3.1128404669260701</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -4376,14 +4377,14 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.58365758754863817</v>
+        <f>((B15*100)/514)</f>
+        <v>2.3346303501945527</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
@@ -4391,14 +4392,14 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.38910505836575876</v>
+        <f>((B16*100)/514)</f>
+        <v>2.3346303501945527</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -4406,14 +4407,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.19455252918287938</v>
+        <f>((B17*100)/514)</f>
+        <v>2.1400778210116731</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -4421,14 +4422,14 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>1.1673151750972763</v>
+        <f>((B18*100)/514)</f>
+        <v>1.556420233463035</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -4436,14 +4437,14 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>12.45136186770428</v>
+        <f>((B19*100)/514)</f>
+        <v>1.1673151750972763</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -4451,14 +4452,14 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>4.0856031128404666</v>
+        <f>((B20*100)/514)</f>
+        <v>0.97276264591439687</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -4466,14 +4467,14 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1.556420233463035</v>
+        <f>((B21*100)/514)</f>
+        <v>0.77821011673151752</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -4481,14 +4482,14 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((B22*100)/514)</f>
+        <v>0.58365758754863817</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -4496,14 +4497,14 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>7.782101167315175</v>
+        <f>((B23*100)/514)</f>
+        <v>0.38910505836575876</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -4511,14 +4512,14 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>4.2801556420233462</v>
+        <f>((B24*100)/514)</f>
+        <v>0.19455252918287938</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -4526,14 +4527,14 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.97276264591439687</v>
+        <f>((B25*100)/514)</f>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -4541,14 +4542,14 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>9.9221789883268485</v>
+        <f>((B26*100)/514)</f>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -4561,13 +4562,16 @@
       </c>
       <c r="C27">
         <f>SUM(C2:C26)</f>
-        <v>99.999999999999986</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+    <sortCondition descending="1" ref="B2:B26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
